--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0005039875836106318</v>
+        <v>0.0005009091434577991</v>
       </c>
       <c r="E2">
-        <v>0.0005039875836106318</v>
+        <v>0.0005009091434577991</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5580487073758684</v>
+        <v>0.5586335071389245</v>
       </c>
       <c r="E3">
-        <v>0.5580487073758684</v>
+        <v>0.5586335071389245</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001241183656936853</v>
+        <v>0.001226009107456918</v>
       </c>
       <c r="E4">
-        <v>0.001241183656936853</v>
+        <v>0.001226009107456918</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.207016173168238E-10</v>
+        <v>1.18235264240131E-10</v>
       </c>
       <c r="E5">
-        <v>1.207016173168238E-10</v>
+        <v>1.18235264240131E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.799809532489936</v>
+        <v>0.801903460880978</v>
       </c>
       <c r="E6">
-        <v>0.799809532489936</v>
+        <v>0.801903460880978</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9757472607116092</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.02425273928839078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9788509572882704</v>
+        <v>1.789834212173071E-07</v>
       </c>
       <c r="E8">
-        <v>0.02114904271172957</v>
+        <v>0.9999998210165788</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9774503394769941</v>
+        <v>0.09986722506612214</v>
       </c>
       <c r="E9">
-        <v>0.02254966052300589</v>
+        <v>0.9001327749338779</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9771444674648362</v>
+        <v>2.169052331615286E-05</v>
       </c>
       <c r="E10">
-        <v>0.02285553253516381</v>
+        <v>0.9999783094766839</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9785827239318925</v>
+        <v>0.9999572275875143</v>
       </c>
       <c r="E11">
-        <v>0.0214172760681075</v>
+        <v>4.277241248573649E-05</v>
       </c>
       <c r="F11">
-        <v>0.2540293335914612</v>
+        <v>3.101717472076416</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>7.755639624872898E-06</v>
+        <v>7.733603271807684E-06</v>
       </c>
       <c r="E12">
-        <v>7.755639624872898E-06</v>
+        <v>7.733603271807684E-06</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7005636802373627</v>
+        <v>0.7052595744657145</v>
       </c>
       <c r="E13">
-        <v>0.7005636802373627</v>
+        <v>0.7052595744657145</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.411077201258972E-06</v>
+        <v>1.436017113963682E-06</v>
       </c>
       <c r="E14">
-        <v>1.411077201258972E-06</v>
+        <v>1.436017113963682E-06</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>8.77814091176019E-15</v>
+        <v>8.843900312332742E-15</v>
       </c>
       <c r="E15">
-        <v>8.77814091176019E-15</v>
+        <v>8.843900312332742E-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6749266226688959</v>
+        <v>0.6727888486231047</v>
       </c>
       <c r="E16">
-        <v>0.6749266226688959</v>
+        <v>0.6727888486231047</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9989862646474018</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.001013735352598188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9991477255762988</v>
+        <v>2.006023524455909E-11</v>
       </c>
       <c r="E18">
-        <v>0.0008522744237011715</v>
+        <v>0.9999999999799397</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9991584759614422</v>
+        <v>0.05143777588323453</v>
       </c>
       <c r="E19">
-        <v>0.0008415240385577505</v>
+        <v>0.9485622241167655</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9991550186626674</v>
+        <v>1.006920530587455E-08</v>
       </c>
       <c r="E20">
-        <v>0.0008449813373325732</v>
+        <v>0.9999999899307946</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9990293998852218</v>
+        <v>0.9999832914291426</v>
       </c>
       <c r="E21">
-        <v>0.0009706001147782306</v>
+        <v>1.670857085744881E-05</v>
       </c>
       <c r="F21">
-        <v>0.2334091365337372</v>
+        <v>4.83522891998291</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
